--- a/config_7.27/act_053_xcns_config.xlsx
+++ b/config_7.27/act_053_xcns_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>8~50</t>
   </si>
   <si>
-    <t>ty_icon_flq1</t>
-  </si>
-  <si>
     <t>小游戏币</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>ty_icon_yxb_1</t>
   </si>
   <si>
-    <t>ty_icon_flq2</t>
-  </si>
-  <si>
     <t>50~200</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>400~2000</t>
   </si>
   <si>
-    <t>ty_icon_flq3</t>
-  </si>
-  <si>
     <t>40万~220万</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
   </si>
   <si>
     <t>800~3000</t>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
   </si>
   <si>
     <t>话费碎片</t>
@@ -163,6 +151,35 @@
         <scheme val="minor"/>
       </rPr>
       <t>,1627919999</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com_award_icon_hfsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -262,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +309,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -625,10 +645,10 @@
         <v>1627919999</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -783,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -844,13 +864,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -861,13 +881,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -878,13 +898,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -896,13 +916,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -913,13 +933,13 @@
         <v>400</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -930,13 +950,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -947,13 +967,13 @@
         <v>1200</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -964,13 +984,13 @@
         <v>2000</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -981,13 +1001,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
